--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2771397.423708757</v>
+        <v>2880538.677268882</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12134429.06144739</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8749155.053341221</v>
+        <v>8771601.928823244</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>243.034247187322</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>94.24014755885203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>56.44258631319776</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518635</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>96.65565115906503</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>33.85559031833751</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838588</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
-        <v>192.0665623188214</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -820,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>30.78740737354961</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>16.40145644309131</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>313.777858696714</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>297.1793947772615</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>65.88281919121265</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>66.91167355029037</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>117.728408995806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>225.7132216402886</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>105.5589862938959</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>30.76993964702313</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722612</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1424,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1582,19 +1584,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>39.9900098519203</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>178.2798710842933</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1661,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560528</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>40.53421095546921</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1898,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.2301075198431</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2053,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2287,25 +2289,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>71.60395572454081</v>
       </c>
       <c r="W22" t="n">
-        <v>93.38904885909308</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2479,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>56.45752097953178</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>65.67353929277157</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>109.0909680372345</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>128.1870493703718</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>166.6594061764999</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>51.36569740310382</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3010,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>54.29785174158985</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,13 +3243,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>108.3106907504116</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3317,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3439,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.24347904696276</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,13 +3483,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>45.31583743121472</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3718,10 +3720,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>139.527197914137</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3898,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3955,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>21.44532649588036</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4034,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4141,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>108.3764982651496</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>844.329830759459</v>
+        <v>1120.647914808405</v>
       </c>
       <c r="C2" t="n">
-        <v>844.329830759459</v>
+        <v>1120.647914808405</v>
       </c>
       <c r="D2" t="n">
-        <v>844.329830759459</v>
+        <v>1120.647914808405</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>1120.647914808405</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>875.1587762353527</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>458.7065149272273</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>146.9919235640844</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>293.3053724073753</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>455.1003844723691</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>717.5236772744649</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1013.594243832066</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1654.61745345196</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>1929.733672768592</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2448.618721147462</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2550.866182466516</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2194.618789397902</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1863.555902054331</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1510.787246784217</v>
       </c>
       <c r="X2" t="n">
-        <v>1234.469162735271</v>
+        <v>1510.787246784217</v>
       </c>
       <c r="Y2" t="n">
-        <v>844.329830759459</v>
+        <v>1120.647914808405</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>949.890208309364</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>775.437179028237</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>626.5027693669858</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>467.2653143615303</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>320.7307563884153</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>85.99742130093843</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>201.9455071369548</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>323.3685994072329</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>900.091414510487</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1541.114624130381</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1905.604188315629</v>
       </c>
       <c r="O3" t="n">
-        <v>2015.115393042427</v>
+        <v>2144.409140067087</v>
       </c>
       <c r="P3" t="n">
-        <v>2262.298126874724</v>
+        <v>2316.738101020796</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2251.223226128892</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1787.954701028121</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1533.717344299919</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1325.865844094386</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>673.036065727045</v>
+        <v>803.0263077932269</v>
       </c>
       <c r="C4" t="n">
-        <v>504.0998827991381</v>
+        <v>634.09012486532</v>
       </c>
       <c r="D4" t="n">
-        <v>473.0014915127243</v>
+        <v>483.9734854529843</v>
       </c>
       <c r="E4" t="n">
-        <v>325.0883979303312</v>
+        <v>336.0603918705912</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>336.0603918705912</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>167.7386194637151</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>167.7386194637151</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>54.03452733018376</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>187.5436166159864</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>413.9157199341299</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>662.9824862666695</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>911.5616180092698</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1125.148384357424</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1284.388078993468</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1108.730062521419</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>1108.730062521419</v>
       </c>
       <c r="U4" t="n">
-        <v>927.7205539329318</v>
+        <v>819.5934355135212</v>
       </c>
       <c r="V4" t="n">
-        <v>673.036065727045</v>
+        <v>803.0263077932269</v>
       </c>
       <c r="W4" t="n">
-        <v>673.036065727045</v>
+        <v>803.0263077932269</v>
       </c>
       <c r="X4" t="n">
-        <v>673.036065727045</v>
+        <v>803.0263077932269</v>
       </c>
       <c r="Y4" t="n">
-        <v>673.036065727045</v>
+        <v>803.0263077932269</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1505.04202752539</v>
+        <v>1937.042904025153</v>
       </c>
       <c r="C5" t="n">
-        <v>1136.079510584979</v>
+        <v>1568.080387084741</v>
       </c>
       <c r="D5" t="n">
-        <v>1136.079510584979</v>
+        <v>1568.080387084741</v>
       </c>
       <c r="E5" t="n">
-        <v>750.2912579867343</v>
+        <v>1182.292134486497</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>771.3062296968895</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>355.6243878970215</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056584</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.50778578647</v>
+        <v>2237.224110870872</v>
       </c>
       <c r="X5" t="n">
-        <v>1505.04202752539</v>
+        <v>2237.224110870872</v>
       </c>
       <c r="Y5" t="n">
-        <v>1505.04202752539</v>
+        <v>1937.042904025153</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>301.9467472258289</v>
       </c>
       <c r="L6" t="n">
-        <v>846.3061319081664</v>
+        <v>599.2586963421436</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687205</v>
+        <v>1240.281905962038</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1630.69146728778</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>515.8852429786114</v>
+        <v>768.7727414285552</v>
       </c>
       <c r="C7" t="n">
-        <v>515.8852429786114</v>
+        <v>768.7727414285552</v>
       </c>
       <c r="D7" t="n">
-        <v>515.8852429786114</v>
+        <v>768.7727414285552</v>
       </c>
       <c r="E7" t="n">
-        <v>367.9721493962183</v>
+        <v>620.859647846162</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962183</v>
+        <v>473.9697003482517</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>305.9935116101411</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>77.9810806808055</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>829.7308018317423</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>836.3602904692525</v>
       </c>
       <c r="V7" t="n">
-        <v>1092.643294372448</v>
+        <v>768.7727414285552</v>
       </c>
       <c r="W7" t="n">
-        <v>803.2261243354876</v>
+        <v>768.7727414285552</v>
       </c>
       <c r="X7" t="n">
-        <v>803.2261243354876</v>
+        <v>768.7727414285552</v>
       </c>
       <c r="Y7" t="n">
-        <v>582.4335451919575</v>
+        <v>768.7727414285552</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>656.1154853312728</v>
+        <v>1956.758668740671</v>
       </c>
       <c r="C8" t="n">
-        <v>656.1154853312728</v>
+        <v>1587.796151800259</v>
       </c>
       <c r="D8" t="n">
-        <v>297.8497867245223</v>
+        <v>1229.530453193509</v>
       </c>
       <c r="E8" t="n">
-        <v>297.8497867245223</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="F8" t="n">
-        <v>290.9042859753188</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G8" t="n">
-        <v>279.2399397400118</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>189.9868871104777</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816075</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2568.493631507463</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.012626270159</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="V8" t="n">
-        <v>1768.949738926588</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="W8" t="n">
-        <v>1416.181083656474</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="X8" t="n">
-        <v>1042.715325395395</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="Y8" t="n">
-        <v>1042.715325395395</v>
+        <v>2075.676253584919</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>688.5974568552864</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>985.9094059716011</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1352.215295463927</v>
       </c>
       <c r="N9" t="n">
-        <v>1565.661695681274</v>
+        <v>1742.624856789669</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>2077.5535375052</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>644.1412202705739</v>
+        <v>622.9619118911446</v>
       </c>
       <c r="C10" t="n">
-        <v>475.205037342667</v>
+        <v>622.9619118911446</v>
       </c>
       <c r="D10" t="n">
-        <v>325.0883979303312</v>
+        <v>516.3366732104416</v>
       </c>
       <c r="E10" t="n">
-        <v>325.0883979303312</v>
+        <v>368.4235796280485</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>368.4235796280485</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>829.7308018317423</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1605.365372956292</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1408.736625116153</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T10" t="n">
-        <v>1408.736625116153</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="U10" t="n">
-        <v>1119.618287619991</v>
+        <v>1059.294864927271</v>
       </c>
       <c r="V10" t="n">
-        <v>864.933799414104</v>
+        <v>804.6103767213843</v>
       </c>
       <c r="W10" t="n">
-        <v>864.933799414104</v>
+        <v>804.6103767213843</v>
       </c>
       <c r="X10" t="n">
-        <v>864.933799414104</v>
+        <v>804.6103767213843</v>
       </c>
       <c r="Y10" t="n">
-        <v>644.1412202705739</v>
+        <v>804.6103767213843</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5023,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5045,13 +5047,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>904.4616873845483</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5348780504994</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5230,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1937.067131165134</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1682.382642959247</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1392.965472922287</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X13" t="n">
-        <v>1164.975922024269</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y13" t="n">
-        <v>944.1833428807391</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5273,31 +5275,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5413,22 +5415,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>472.9099533103043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5510,7 +5512,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5589,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>783.5579673960132</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>614.6217844681063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5701,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5765,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2383.002557118213</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>2878.328163333972</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M21" t="n">
-        <v>2878.328163333972</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>3505.926126888579</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>4057.835857127866</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>4457.571492023711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356195</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
         <v>929.7309773356195</v>
@@ -5935,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>1339.368993063877</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1111.379442165859</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>1111.379442165859</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5975,19 +5977,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6069,25 +6071,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>923.4916164683283</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>754.5554335404214</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2380.626175203724</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2380.626175203724</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2091.550948547922</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611858</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.4916164683283</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6217,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>590.9096564684977</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.28814409505</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N27" t="n">
-        <v>1815.886107649656</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3161.37108304703</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C28" t="n">
-        <v>3161.37108304703</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D28" t="n">
-        <v>3011.254443634695</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>2863.341350052302</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>2716.451402554391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>2549.255303269271</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673937</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>4115.110757018135</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>3860.426268812248</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>3571.009098775287</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>3343.01954787727</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>3343.01954787727</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6479,31 +6481,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684977</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.28814409505</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1815.886107649656</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3047.140839595365</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C31" t="n">
-        <v>2878.798005073648</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D31" t="n">
-        <v>2728.681365661313</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661313</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W31" t="n">
-        <v>3677.571434467152</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X31" t="n">
-        <v>3449.581883569135</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y31" t="n">
-        <v>3228.789304425605</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="32">
@@ -6689,34 +6691,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6777,25 +6779,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1520.445529061503</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O33" t="n">
-        <v>2072.35525930079</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3173.601046153952</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>3966.646661122954</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W34" t="n">
-        <v>3677.229491085994</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X34" t="n">
-        <v>3449.239940187977</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y34" t="n">
-        <v>3228.447361044447</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6919,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6932,7 +6934,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6941,16 +6943,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>2231.588527385791</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>2726.91413360155</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>3324.292621228102</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N36" t="n">
-        <v>3482.038612289356</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O36" t="n">
-        <v>4033.948342528643</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>4457.571492023711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3194.624135499465</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>3025.687952571559</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="D37" t="n">
-        <v>2875.571313159223</v>
+        <v>613.6374994204285</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>465.7244058380354</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>318.834458340125</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>151.638359055005</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>3932.255922673039</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>3642.838752636078</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>3597.065179473235</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>3376.272600329705</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3342.537229081859</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153952</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>3932.255922673039</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>3791.319359123406</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>3563.329808225389</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>3342.537229081859</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7400,10 +7402,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7418,13 +7420,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2233.355914590558</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2567.280686761779</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>3042.233551722367</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>3639.612039348919</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
-        <v>4267.210002903525</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>4267.210002903525</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>4690.833152398593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>929.7309773356195</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1849.578742244367</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1560.161572207407</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1332.172021309389</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1111.379442165859</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7637,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7725,28 +7727,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3050.708758511721</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>2881.772575583814</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>2881.772575583814</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>2733.859482001421</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>4623.787448650995</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>4514.316238282157</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>4225.241011626355</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>3970.556523420469</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>3681.139353383508</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>3453.149802485491</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>3232.357223341961</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>25.05102180192495</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>338.9374781659704</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>380.8926041660687</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>79.95524621405775</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.5911984019045</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,16 +8300,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>255.8421700460943</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179981</v>
+        <v>277.4922425530996</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>232.4400048971985</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>224.3355197601772</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039157</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>119.3759750973107</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9881,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>-1.972915003185951e-13</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23470,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>246.1944645373239</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>40.30478226780144</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>126.7126101431586</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.60187266209422</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="W22" t="n">
-        <v>193.1339494774979</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>92.15795203868058</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.352746708873</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>58.15585306139334</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>12.10766347585209</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5874149221278913</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.0397529241845</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>125.5341284403474</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25129,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>178.2123075861794</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.05123379926113</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>180.3938179578224</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>146.995800422454</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>230.6923168279476</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>109.0289520621386</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>770300.8675605369</v>
+        <v>793113.3107117728</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>770300.8675605369</v>
+        <v>770107.0450159193</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>770300.8675605369</v>
+        <v>770107.0450159193</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>752100.1003983667</v>
+        <v>752100.1003983668</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>752100.1003983667</v>
+        <v>752100.1003983668</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>752100.1003983667</v>
+        <v>752100.1003983668</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>752100.1003983667</v>
+        <v>752100.1003983666</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>752100.1003983668</v>
+        <v>752100.1003983667</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>752100.1003983668</v>
+        <v>752100.1003983667</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>752100.1003983668</v>
+        <v>752100.1003983667</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>752100.1003983668</v>
+        <v>752100.1003983667</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>752100.1003983668</v>
+        <v>752100.1003983666</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>752100.1003983667</v>
+        <v>752100.1003983666</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380344</v>
+        <v>677359.460138034</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380338</v>
       </c>
       <c r="E2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="F2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="K2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="F2" t="n">
+      <c r="L2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="M2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="G2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442548</v>
-      </c>
       <c r="N2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442546</v>
       </c>
       <c r="O2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442547</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172764.3597898952</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>500888.8677457506</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>169414.0168260482</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>130884.456904235</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130705.5901165055</v>
+        <v>159785.8388151603</v>
       </c>
       <c r="C4" t="n">
-        <v>130705.5901165056</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>130705.5901165056</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695081</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695087</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695051</v>
@@ -26439,7 +26441,7 @@
         <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695023</v>
       </c>
       <c r="K4" t="n">
         <v>6287.480531695051</v>
@@ -26448,7 +26450,7 @@
         <v>6287.480531695051</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
         <v>6287.480531695051</v>
@@ -26457,7 +26459,7 @@
         <v>6287.480531695051</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>89345.07489699085</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-661035.685994236</v>
+        <v>-511454.3894495135</v>
       </c>
       <c r="C6" t="n">
-        <v>453716.0975816841</v>
+        <v>282047.2562613813</v>
       </c>
       <c r="D6" t="n">
-        <v>453716.0975816837</v>
+        <v>454811.6160512764</v>
       </c>
       <c r="E6" t="n">
-        <v>51000.49276410695</v>
+        <v>57597.06664290193</v>
       </c>
       <c r="F6" t="n">
-        <v>558485.9343886528</v>
+        <v>558485.9343886526</v>
       </c>
       <c r="G6" t="n">
-        <v>558485.9343886528</v>
+        <v>558485.9343886529</v>
       </c>
       <c r="H6" t="n">
-        <v>558485.9343886528</v>
+        <v>558485.9343886531</v>
       </c>
       <c r="I6" t="n">
+        <v>558485.9343886526</v>
+      </c>
+      <c r="J6" t="n">
+        <v>389071.9175626049</v>
+      </c>
+      <c r="K6" t="n">
         <v>558485.9343886527</v>
       </c>
-      <c r="J6" t="n">
-        <v>390880.7565786705</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>558485.9343886529</v>
       </c>
-      <c r="L6" t="n">
-        <v>558485.9343886528</v>
-      </c>
       <c r="M6" t="n">
-        <v>425878.6406597259</v>
+        <v>427601.4774844177</v>
       </c>
       <c r="N6" t="n">
-        <v>558485.9343886526</v>
+        <v>558485.9343886524</v>
       </c>
       <c r="O6" t="n">
         <v>558485.9343886527</v>
       </c>
       <c r="P6" t="n">
-        <v>558485.9343886528</v>
+        <v>558485.9343886526</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26697,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>189.7254341522369</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>428.2691096918292</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>163.8417985543895</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>313.2885143652713</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>117.8280656446628</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>116.48346005197</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>235.7361868807367</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27625,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>93.09818704499742</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>89.05854387879214</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>113.9491609907246</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>185.2259697735376</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>265.0054326676745</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>75.30533092211681</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>43.05648672431641</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>70.7876327725505</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28393,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>7.71678812803845e-13</v>
       </c>
     </row>
     <row r="15">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.014998820090883</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>30.87735666625576</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>116.2357420115539</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>255.8942561066888</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>383.519156161136</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>475.7894263014924</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>529.4074115682837</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>537.9737769658669</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>507.9933824485882</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>433.5605990775944</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>325.5859538330896</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>189.3909196325341</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>68.70428561282107</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>13.19815733494785</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.2411999056072706</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>1.6131665856741</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>15.57979307743144</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>55.54104253307757</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>152.4088658859903</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>260.491027126155</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>350.2623325605101</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>408.7396212911962</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>419.5577428240721</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>383.8133674257144</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>308.0440649433287</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>205.9192996028904</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>100.1578341526428</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>29.96386179969214</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>6.502193386993408</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.106129380636454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.352424675651424</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>12.02428484351903</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>40.67109842777192</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>95.61642456855564</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>157.1271577711381</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>201.0686649600308</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>211.9987152932499</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>206.9578596840039</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>191.1590805184395</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>163.5696171351503</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>113.2471244311388</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>60.80993132519945</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>23.56907366567071</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>5.778541795965173</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.07376861867189592</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,31 +31837,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0899880277084</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>300.768778117042</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,25 +32074,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>188.4731159523455</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32309,34 +32311,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>729.0844763571695</v>
       </c>
       <c r="N18" t="n">
-        <v>375.1407109807906</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
@@ -32567,7 +32569,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>537.7477759959925</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32789,13 +32791,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M24" t="n">
-        <v>518.439455159358</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32810,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33028,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>472.0729312464047</v>
       </c>
       <c r="O27" t="n">
-        <v>223.6976288294628</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>608.2694430035896</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>422.3057151140782</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>383.9182138639289</v>
+        <v>437.853104691376</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33734,19 +33736,19 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>615.038144437878</v>
       </c>
       <c r="N36" t="n">
-        <v>290.6810969936916</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,10 +33757,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -33983,7 +33985,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33995,7 +33997,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,31 +34207,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>618.304748426933</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34445,10 +34447,10 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>138.5955196772184</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>225.4828684302377</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>243.9449667520763</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>163.4293051161554</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>265.0740331334301</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>299.061178341011</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>277.8951710269015</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>524.1263114938075</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>103.2802639586401</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>39.52180169138441</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>151.6622745597324</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>122.649588151796</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>582.5482980840951</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>368.1712769547966</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>241.2171229812699</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>174.0696575289985</v>
       </c>
       <c r="Q3" t="n">
-        <v>303.0719207327591</v>
+        <v>276.0148132527179</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>2.257244451882869</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>134.8576659452552</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>228.6586902203469</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>251.5825922550905</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>251.0900320632325</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>215.7442084324792</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>160.8481764000438</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>27.08508117944437</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>64.12666919171355</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>553.5225306839445</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>570.7518035997552</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>615.5326193530511</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000387</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>371.3726699104611</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>481.5356082478342</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>169.4270660337087</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,7 +35655,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35720,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>45.87687150790109</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35887,7 +35889,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>586.9504424351511</v>
       </c>
       <c r="N18" t="n">
-        <v>243.7989988974573</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36215,7 +36217,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>403.7733685816622</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36367,7 +36369,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36437,13 +36439,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M24" t="n">
-        <v>376.3054212373396</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36458,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>340.7312191630714</v>
       </c>
       <c r="O27" t="n">
-        <v>81.10138438501835</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>469.7150632237154</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>279.7094706696337</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>249.9438064495987</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37321,7 +37323,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37382,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>472.9041105158597</v>
       </c>
       <c r="N36" t="n">
-        <v>159.3393849103583</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,10 +37405,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,7 +37548,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,7 +37633,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37643,7 +37645,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>479.7503686470587</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>82.88662398579324</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2880538.677268882</v>
+        <v>2876382.490960916</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8771601.928823244</v>
+        <v>8771601.928823246</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>243.034247187322</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>12.28773869504417</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885203</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>17.98548286263917</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906503</v>
+        <v>96.65565115906504</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833751</v>
+        <v>33.8555903183376</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>57.49755706788184</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.6385546828073</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>16.40145644309131</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>286.5101294792975</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>297.1793947772615</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>66.91167355029037</v>
+        <v>60.86538463674672</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>117.728408995806</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>235.7510981967101</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>105.5589862938959</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>100.5827519824189</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>53.08838020946283</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.2798710842933</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560528</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>71.60395572454081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>126.3436347319667</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>65.67353929277157</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>109.0909680372345</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>51.36569740310382</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,10 +3246,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>108.3106907504116</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.24347904696276</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3511,10 +3511,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>65.44930784064577</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1120.647914808405</v>
+        <v>815.2111645447394</v>
       </c>
       <c r="C2" t="n">
-        <v>1120.647914808405</v>
+        <v>815.2111645447394</v>
       </c>
       <c r="D2" t="n">
-        <v>1120.647914808405</v>
+        <v>456.9454659379888</v>
       </c>
       <c r="E2" t="n">
-        <v>1120.647914808405</v>
+        <v>71.15721333974459</v>
       </c>
       <c r="F2" t="n">
-        <v>875.1587762353527</v>
+        <v>64.21171259054111</v>
       </c>
       <c r="G2" t="n">
-        <v>458.7065149272273</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640844</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I2" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073753</v>
+        <v>125.8997233870219</v>
       </c>
       <c r="K2" t="n">
-        <v>455.1003844723691</v>
+        <v>608.5986938974683</v>
       </c>
       <c r="L2" t="n">
-        <v>717.5236772744649</v>
+        <v>846.2214751156578</v>
       </c>
       <c r="M2" t="n">
-        <v>1013.594243832066</v>
+        <v>1142.292041673258</v>
       </c>
       <c r="N2" t="n">
-        <v>1654.61745345196</v>
+        <v>1447.76714790884</v>
       </c>
       <c r="O2" t="n">
-        <v>1929.733672768592</v>
+        <v>1758.668415689759</v>
       </c>
       <c r="P2" t="n">
-        <v>2448.618721147462</v>
+        <v>2277.553464068628</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466516</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016315</v>
+        <v>2571.82561173428</v>
       </c>
       <c r="T2" t="n">
-        <v>2448.259651016315</v>
+        <v>2571.82561173428</v>
       </c>
       <c r="U2" t="n">
-        <v>2194.618789397902</v>
+        <v>2318.184750115867</v>
       </c>
       <c r="V2" t="n">
-        <v>1863.555902054331</v>
+        <v>2318.184750115867</v>
       </c>
       <c r="W2" t="n">
-        <v>1510.787246784217</v>
+        <v>1965.416094845753</v>
       </c>
       <c r="X2" t="n">
-        <v>1510.787246784217</v>
+        <v>1591.950336584673</v>
       </c>
       <c r="Y2" t="n">
-        <v>1120.647914808405</v>
+        <v>1201.811004608861</v>
       </c>
     </row>
     <row r="3">
@@ -4385,73 +4385,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.890208309364</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>775.437179028237</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669858</v>
+        <v>626.5027693669851</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615303</v>
+        <v>467.2653143615296</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884153</v>
+        <v>320.7307563884146</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686809</v>
+        <v>183.629392168681</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093843</v>
+        <v>85.99742130093851</v>
       </c>
       <c r="I3" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369548</v>
+        <v>201.9455071369546</v>
       </c>
       <c r="K3" t="n">
-        <v>323.3685994072329</v>
+        <v>585.1891840496851</v>
       </c>
       <c r="L3" t="n">
-        <v>900.091414510487</v>
+        <v>1161.911999152939</v>
       </c>
       <c r="M3" t="n">
-        <v>1541.114624130381</v>
+        <v>1425.851530648424</v>
       </c>
       <c r="N3" t="n">
-        <v>1905.604188315629</v>
+        <v>1711.185401081755</v>
       </c>
       <c r="O3" t="n">
-        <v>2144.409140067087</v>
+        <v>1949.990352833212</v>
       </c>
       <c r="P3" t="n">
         <v>2316.738101020796</v>
       </c>
       <c r="Q3" t="n">
+        <v>2589.992766140987</v>
+      </c>
+      <c r="R3" t="n">
         <v>2589.992766140986</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128892</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
         <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.954701028121</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
-        <v>1533.717344299919</v>
+        <v>1533.717344299918</v>
       </c>
       <c r="X3" t="n">
-        <v>1325.865844094386</v>
+        <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
         <v>1118.105545329432</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>803.0263077932269</v>
+        <v>573.0030092826072</v>
       </c>
       <c r="C4" t="n">
-        <v>634.09012486532</v>
+        <v>573.0030092826072</v>
       </c>
       <c r="D4" t="n">
-        <v>483.9734854529843</v>
+        <v>514.9246688099993</v>
       </c>
       <c r="E4" t="n">
-        <v>336.0603918705912</v>
+        <v>367.0115752276062</v>
       </c>
       <c r="F4" t="n">
-        <v>336.0603918705912</v>
+        <v>220.1216277296958</v>
       </c>
       <c r="G4" t="n">
-        <v>167.7386194637151</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637151</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I4" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018376</v>
+        <v>54.03452733018363</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159864</v>
+        <v>187.5436166159861</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341299</v>
+        <v>413.9157199341292</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666695</v>
+        <v>662.9824862666685</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092698</v>
+        <v>911.5616180092684</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357424</v>
+        <v>1125.148384357422</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993468</v>
+        <v>1284.388078993466</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361115</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361115</v>
       </c>
       <c r="S4" t="n">
-        <v>1108.730062521419</v>
+        <v>1311.202309361115</v>
       </c>
       <c r="T4" t="n">
-        <v>1108.730062521419</v>
+        <v>1311.202309361115</v>
       </c>
       <c r="U4" t="n">
-        <v>819.5934355135212</v>
+        <v>1311.202309361115</v>
       </c>
       <c r="V4" t="n">
-        <v>803.0263077932269</v>
+        <v>1311.202309361115</v>
       </c>
       <c r="W4" t="n">
-        <v>803.0263077932269</v>
+        <v>1021.785139324155</v>
       </c>
       <c r="X4" t="n">
-        <v>803.0263077932269</v>
+        <v>793.7955884261373</v>
       </c>
       <c r="Y4" t="n">
-        <v>803.0263077932269</v>
+        <v>573.0030092826072</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1937.042904025153</v>
+        <v>797.6150093786493</v>
       </c>
       <c r="C5" t="n">
-        <v>1568.080387084741</v>
+        <v>428.6524924382377</v>
       </c>
       <c r="D5" t="n">
-        <v>1568.080387084741</v>
+        <v>70.3867938314872</v>
       </c>
       <c r="E5" t="n">
-        <v>1182.292134486497</v>
+        <v>70.3867938314872</v>
       </c>
       <c r="F5" t="n">
-        <v>771.3062296968895</v>
+        <v>63.44129308228372</v>
       </c>
       <c r="G5" t="n">
-        <v>355.6243878970215</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J5" t="n">
         <v>189.986887110478</v>
       </c>
       <c r="K5" t="n">
-        <v>447.831944713551</v>
+        <v>447.8319447135509</v>
       </c>
       <c r="L5" t="n">
         <v>804.6133007477383</v>
@@ -4585,34 +4585,34 @@
         <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645556</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="U5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="V5" t="n">
-        <v>2589.992766140986</v>
+        <v>2300.588594949777</v>
       </c>
       <c r="W5" t="n">
-        <v>2237.224110870872</v>
+        <v>1947.819939679663</v>
       </c>
       <c r="X5" t="n">
-        <v>2237.224110870872</v>
+        <v>1574.354181418583</v>
       </c>
       <c r="Y5" t="n">
-        <v>1937.042904025153</v>
+        <v>1184.214849442771</v>
       </c>
     </row>
     <row r="6">
@@ -4640,25 +4640,25 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J6" t="n">
         <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258289</v>
+        <v>563.7673318682815</v>
       </c>
       <c r="L6" t="n">
-        <v>599.2586963421436</v>
+        <v>1104.091621317939</v>
       </c>
       <c r="M6" t="n">
-        <v>1240.281905962038</v>
+        <v>1470.397510810264</v>
       </c>
       <c r="N6" t="n">
-        <v>1630.69146728778</v>
+        <v>1860.807072136007</v>
       </c>
       <c r="O6" t="n">
         <v>2195.735752851538</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>768.7727414285552</v>
+        <v>665.6557187433658</v>
       </c>
       <c r="C7" t="n">
-        <v>768.7727414285552</v>
+        <v>496.7195358154589</v>
       </c>
       <c r="D7" t="n">
-        <v>768.7727414285552</v>
+        <v>346.6028964031232</v>
       </c>
       <c r="E7" t="n">
-        <v>620.859647846162</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F7" t="n">
-        <v>473.9697003482517</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="G7" t="n">
-        <v>305.9935116101411</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="H7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J7" t="n">
-        <v>77.9810806808055</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
         <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317423</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1348.412641916873</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1125.478067458854</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>836.3602904692525</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V7" t="n">
-        <v>768.7727414285552</v>
+        <v>1585.503483652114</v>
       </c>
       <c r="W7" t="n">
-        <v>768.7727414285552</v>
+        <v>1296.086313615153</v>
       </c>
       <c r="X7" t="n">
-        <v>768.7727414285552</v>
+        <v>1068.096762717136</v>
       </c>
       <c r="Y7" t="n">
-        <v>768.7727414285552</v>
+        <v>847.3041835736055</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1956.758668740671</v>
+        <v>1201.655413419054</v>
       </c>
       <c r="C8" t="n">
-        <v>1587.796151800259</v>
+        <v>832.6928964786418</v>
       </c>
       <c r="D8" t="n">
-        <v>1229.530453193509</v>
+        <v>474.4271978718913</v>
       </c>
       <c r="E8" t="n">
-        <v>843.7422005952644</v>
+        <v>474.4271978718913</v>
       </c>
       <c r="F8" t="n">
-        <v>836.796699846061</v>
+        <v>63.44129308228371</v>
       </c>
       <c r="G8" t="n">
-        <v>421.1148580461929</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104777</v>
+        <v>189.9868871104791</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135507</v>
+        <v>447.8319447135523</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477401</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187504</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539973</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082063</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507463</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.815585560731</v>
+        <v>2351.860343720067</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.815585560731</v>
+        <v>1978.394585458987</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.676253584919</v>
+        <v>1588.255253483175</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>688.5974568552864</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L9" t="n">
-        <v>985.9094059716011</v>
+        <v>942.9699568457228</v>
       </c>
       <c r="M9" t="n">
-        <v>1352.215295463927</v>
+        <v>1309.275846338048</v>
       </c>
       <c r="N9" t="n">
-        <v>1742.624856789669</v>
+        <v>1699.685407663791</v>
       </c>
       <c r="O9" t="n">
-        <v>2077.5535375052</v>
+        <v>2034.614088379322</v>
       </c>
       <c r="P9" t="n">
         <v>2445.212480716556</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>622.9619118911446</v>
+        <v>472.4514170392431</v>
       </c>
       <c r="C10" t="n">
-        <v>622.9619118911446</v>
+        <v>303.5152341113362</v>
       </c>
       <c r="D10" t="n">
-        <v>516.3366732104416</v>
+        <v>153.3985946990005</v>
       </c>
       <c r="E10" t="n">
-        <v>368.4235796280485</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F10" t="n">
-        <v>368.4235796280485</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G10" t="n">
-        <v>200.4473908899379</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
         <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317423</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1348.412641916873</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1348.412641916873</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1059.294864927271</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>804.6103767213843</v>
+        <v>1392.299181947991</v>
       </c>
       <c r="W10" t="n">
-        <v>804.6103767213843</v>
+        <v>1102.88201191103</v>
       </c>
       <c r="X10" t="n">
-        <v>804.6103767213843</v>
+        <v>874.892461013013</v>
       </c>
       <c r="Y10" t="n">
-        <v>804.6103767213843</v>
+        <v>654.0998818694828</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5074,19 +5074,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>579.1554649516142</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1176.533952578166</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2393.338457106056</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2393.338457106056</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2104.263230450254</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W13" t="n">
-        <v>1688.385853854706</v>
+        <v>1560.161572207406</v>
       </c>
       <c r="X13" t="n">
-        <v>1460.396302956689</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="14">
@@ -5266,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,31 +5275,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5509,7 +5509,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
@@ -5521,7 +5521,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5536,7 +5536,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5603,19 +5603,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5652,25 +5652,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5779,13 +5779,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,13 +5983,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6174,25 +6174,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2380.626175203724</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2380.626175203724</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2091.550948547922</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.866460342035</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1547.449290305074</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1319.459739407057</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1098.667160263527</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000582</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6454,58 +6454,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>710.248605371872</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6943,16 +6943,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6964,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>763.7541388327643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>613.6374994204285</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>465.7244058380354</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>318.834458340125</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>151.638359055005</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7159,7 +7159,7 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7259,22 +7259,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,13 +7423,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>25.05102180192495</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>338.9374781659704</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>36.14651360028995</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159832</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8926041660687</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>79.95524621405775</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>196.3826133675519</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.428190898877801e-12</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,19 +8297,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>245.4670104377199</v>
       </c>
       <c r="M6" t="n">
-        <v>277.4922425530996</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>232.4400048971985</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906578</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>347.1830914177569</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>119.3759750973107</v>
+        <v>162.7491560325415</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906578</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>-1.465101099348471e-13</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>-1.972915003185951e-13</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>127.9379057921818</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>40.30478226780144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>119.8635921600923</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>53.48834544997058</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>115.352746708873</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>58.15585306139334</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.0397529241845</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>178.2123075861794</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.05123379926113</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>220.7351665485984</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>793113.3107117728</v>
+        <v>793113.310711773</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>752100.1003983666</v>
+        <v>752100.1003983667</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>752100.1003983668</v>
+        <v>752100.1003983666</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>752100.1003983667</v>
+        <v>752100.1003983666</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>752100.1003983667</v>
+        <v>752100.1003983666</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>752100.1003983667</v>
+        <v>752100.1003983666</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>752100.1003983666</v>
+        <v>752100.1003983667</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380329</v>
       </c>
       <c r="C2" t="n">
         <v>677359.460138034</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380342</v>
       </c>
       <c r="E2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="F2" t="n">
+        <v>665895.9447442554</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442554</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="L2" t="n">
         <v>665895.9447442547</v>
       </c>
-      <c r="F2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="M2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="H2" t="n">
-        <v>665895.9447442553</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442553</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="O2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="M2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442546</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442547</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753958</v>
+        <v>939682.9358753946</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898952</v>
+        <v>172764.3597898961</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457506</v>
+        <v>500888.8677457509</v>
       </c>
       <c r="F3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260482</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.456904235</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151603</v>
+        <v>159785.8388151605</v>
       </c>
       <c r="C4" t="n">
         <v>129066.7547252479</v>
@@ -26426,37 +26426,37 @@
         <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695087</v>
+        <v>6287.480531695024</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695093</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695106</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695023</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695052</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699085</v>
+        <v>89345.07489699082</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-511454.3894495135</v>
+        <v>-511454.3894495131</v>
       </c>
       <c r="C6" t="n">
-        <v>282047.2562613813</v>
+        <v>282047.2562613803</v>
       </c>
       <c r="D6" t="n">
-        <v>454811.6160512764</v>
+        <v>454811.6160512766</v>
       </c>
       <c r="E6" t="n">
-        <v>57597.06664290193</v>
+        <v>57249.68738854524</v>
       </c>
       <c r="F6" t="n">
-        <v>558485.9343886526</v>
+        <v>558138.5551342963</v>
       </c>
       <c r="G6" t="n">
-        <v>558485.9343886529</v>
+        <v>558138.5551342958</v>
       </c>
       <c r="H6" t="n">
-        <v>558485.9343886531</v>
+        <v>558138.555134296</v>
       </c>
       <c r="I6" t="n">
-        <v>558485.9343886526</v>
+        <v>558138.5551342962</v>
       </c>
       <c r="J6" t="n">
-        <v>389071.9175626049</v>
+        <v>388724.5383082475</v>
       </c>
       <c r="K6" t="n">
-        <v>558485.9343886527</v>
+        <v>558138.555134296</v>
       </c>
       <c r="L6" t="n">
-        <v>558485.9343886529</v>
+        <v>558138.5551342956</v>
       </c>
       <c r="M6" t="n">
-        <v>427601.4774844177</v>
+        <v>427254.0982300608</v>
       </c>
       <c r="N6" t="n">
-        <v>558485.9343886524</v>
+        <v>558138.5551342957</v>
       </c>
       <c r="O6" t="n">
-        <v>558485.9343886527</v>
+        <v>558138.555134296</v>
       </c>
       <c r="P6" t="n">
-        <v>558485.9343886526</v>
+        <v>558138.5551342957</v>
       </c>
     </row>
   </sheetData>
@@ -26697,7 +26697,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976066</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>647.4981915352466</v>
+      </c>
+      <c r="C4" t="n">
+        <v>647.4981915352466</v>
+      </c>
+      <c r="D4" t="n">
         <v>647.4981915352465</v>
-      </c>
-      <c r="C4" t="n">
-        <v>647.4981915352465</v>
-      </c>
-      <c r="D4" t="n">
-        <v>647.4981915352466</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976066</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522369</v>
+        <v>189.7254341522379</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918292</v>
+        <v>428.2691096918295</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,10 +26980,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352469</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644016</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>163.8417985543895</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.2401475588522</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>122.3303011107852</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>91.11791595033051</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>150.2028876639206</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.48346005197</v>
+        <v>116.4834600519701</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713016</v>
       </c>
       <c r="T4" t="n">
         <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>235.7361868807367</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
         <v>64.83556544767973</v>
@@ -27675,16 +27675,16 @@
         <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>41.24212899083744</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>89.05854387879214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>185.2259697735376</v>
+        <v>191.2722586870813</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>265.0054326676745</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>113.4898705207029</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>43.05648672431641</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>45.85121066415023</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
         <v>104.4906595130011</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
         <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.71678812803845e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28860,7 +28860,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090883</v>
+        <v>3.014998820090879</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625576</v>
+        <v>30.87735666625572</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115539</v>
+        <v>116.2357420115537</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066888</v>
+        <v>255.8942561066884</v>
       </c>
       <c r="K2" t="n">
-        <v>383.519156161136</v>
+        <v>383.5191561611354</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014924</v>
+        <v>475.7894263014917</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682837</v>
+        <v>529.4074115682829</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658669</v>
+        <v>537.9737769658661</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485882</v>
+        <v>507.9933824485874</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775944</v>
+        <v>433.5605990775938</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330896</v>
+        <v>325.5859538330891</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325341</v>
+        <v>189.3909196325338</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282107</v>
+        <v>68.70428561282097</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494785</v>
+        <v>13.19815733494783</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072706</v>
+        <v>0.2411999056072702</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6131665856741</v>
+        <v>1.613166585674097</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743144</v>
+        <v>15.57979307743141</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307757</v>
+        <v>55.54104253307748</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859903</v>
+        <v>152.4088658859901</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126155</v>
+        <v>260.4910271261546</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605101</v>
+        <v>350.2623325605096</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911962</v>
+        <v>408.7396212911955</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240721</v>
+        <v>419.5577428240715</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257144</v>
+        <v>383.8133674257138</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433287</v>
+        <v>308.0440649433283</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028904</v>
+        <v>205.91929960289</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526428</v>
+        <v>100.1578341526427</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969214</v>
+        <v>29.96386179969209</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993408</v>
+        <v>6.502193386993398</v>
       </c>
       <c r="U3" t="n">
-        <v>0.106129380636454</v>
+        <v>0.1061293806364538</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651424</v>
+        <v>1.352424675651422</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351903</v>
+        <v>12.02428484351901</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777192</v>
+        <v>40.67109842777185</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855564</v>
+        <v>95.6164245685555</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711381</v>
+        <v>157.1271577711379</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600308</v>
+        <v>201.0686649600305</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932499</v>
+        <v>211.9987152932496</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840039</v>
+        <v>206.9578596840036</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184395</v>
+        <v>191.1590805184392</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351503</v>
+        <v>163.5696171351501</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311388</v>
+        <v>113.2471244311386</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519945</v>
+        <v>60.80993132519936</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567071</v>
+        <v>23.56907366567068</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965173</v>
+        <v>5.778541795965164</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189592</v>
+        <v>0.07376861867189581</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31290,37 +31290,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179232</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31363,7 +31363,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583802</v>
@@ -31384,19 +31384,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315818</v>
@@ -31442,25 +31442,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
         <v>204.9484232984512</v>
@@ -31469,16 +31469,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31527,37 +31527,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179232</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31600,7 +31600,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
@@ -31621,19 +31621,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31679,25 +31679,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
         <v>204.9484232984512</v>
@@ -31706,16 +31706,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>300.768778117042</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32323,22 +32323,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>729.0844763571695</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,40 +32548,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982898</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>472.0729312464047</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>608.2694430035896</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>437.853104691376</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>615.038144437878</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33979,25 +33979,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,19 +34219,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520763</v>
+        <v>74.84835158000215</v>
       </c>
       <c r="K2" t="n">
-        <v>163.4293051161554</v>
+        <v>487.5747176873196</v>
       </c>
       <c r="L2" t="n">
-        <v>265.0740331334301</v>
+        <v>240.0230113315045</v>
       </c>
       <c r="M2" t="n">
-        <v>299.061178341011</v>
+        <v>299.0611783410102</v>
       </c>
       <c r="N2" t="n">
-        <v>647.4981915352465</v>
+        <v>308.5607133692752</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269015</v>
+        <v>314.0416846271906</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938075</v>
+        <v>524.126311493807</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586401</v>
+        <v>315.5952546185443</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138441</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597324</v>
+        <v>151.6622745597322</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151796</v>
+        <v>387.1148251643742</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840951</v>
+        <v>582.5482980840945</v>
       </c>
       <c r="M3" t="n">
-        <v>647.4981915352465</v>
+        <v>266.6055873691772</v>
       </c>
       <c r="N3" t="n">
-        <v>368.1712769547966</v>
+        <v>288.2160307407381</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812699</v>
+        <v>241.2171229812694</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289985</v>
+        <v>370.4522708965499</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527179</v>
+        <v>276.0148132527177</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882869</v>
+        <v>2.257244451882727</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452552</v>
+        <v>134.857665945255</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203469</v>
+        <v>228.6586902203466</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550905</v>
+        <v>251.5825922550902</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632325</v>
+        <v>251.0900320632322</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324792</v>
+        <v>215.7442084324789</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000438</v>
+        <v>160.8481764000435</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944437</v>
+        <v>27.0850811794442</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760962126</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171355</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931441</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>545.7821105552094</v>
       </c>
       <c r="M6" t="n">
-        <v>647.4981915352465</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
         <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>570.7518035997552</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297623</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978362</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35102,10 +35102,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
@@ -35114,7 +35114,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K9" t="n">
-        <v>453.0121960057227</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174896</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="M9" t="n">
         <v>370.0059489821469</v>
@@ -35266,13 +35266,13 @@
         <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025567</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>371.3726699104611</v>
+        <v>414.7458508456917</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297623</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978362</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35339,10 +35339,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
@@ -35351,7 +35351,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>169.4270660337087</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35971,22 +35971,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>586.9504424351511</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>140.6875824748321</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>302.0934576762715</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>340.7312191630714</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>469.7150632237154</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,19 +37153,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>303.8786972770457</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>472.9041105158597</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,19 +37867,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2876382.490960916</v>
+        <v>2878143.021263701</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8771601.928823246</v>
+        <v>8771601.928823244</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>12.28773869504417</v>
+        <v>190.8364155495869</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.2401475588522</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>17.98548286263917</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>57.49755706788184</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>84.25363466719968</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.6385546828073</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519701</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>344.9958096652163</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>286.5101294792975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>60.86538463674672</v>
+        <v>60.86538463674717</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>286.5101294792975</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.52502338186935</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>235.7510981967101</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>100.5827519824189</v>
+        <v>100.5827519824194</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>143.3175246302654</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>53.08838020946283</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>71.79687029691044</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>126.3436347319667</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>250.1067528667074</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="33">
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G40" t="n">
-        <v>102.1557845699813</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
         <v>99.97427419833815</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>65.44930784064577</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>815.2111645447394</v>
+        <v>1863.758352609792</v>
       </c>
       <c r="C2" t="n">
-        <v>815.2111645447394</v>
+        <v>1494.795835669381</v>
       </c>
       <c r="D2" t="n">
-        <v>456.9454659379888</v>
+        <v>1136.53013706263</v>
       </c>
       <c r="E2" t="n">
-        <v>71.15721333974459</v>
+        <v>750.741884464386</v>
       </c>
       <c r="F2" t="n">
-        <v>64.21171259054111</v>
+        <v>339.7559796747784</v>
       </c>
       <c r="G2" t="n">
-        <v>51.79985532281973</v>
+        <v>146.9919235640846</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281973</v>
+        <v>146.9919235640846</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281973</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870219</v>
+        <v>293.3053724073749</v>
       </c>
       <c r="K2" t="n">
-        <v>608.5986938974683</v>
+        <v>776.0043429178213</v>
       </c>
       <c r="L2" t="n">
-        <v>846.2214751156578</v>
+        <v>1065.826442360724</v>
       </c>
       <c r="M2" t="n">
-        <v>1142.292041673258</v>
+        <v>1706.849651980618</v>
       </c>
       <c r="N2" t="n">
-        <v>1447.76714790884</v>
+        <v>2012.324758216201</v>
       </c>
       <c r="O2" t="n">
-        <v>1758.668415689759</v>
+        <v>2287.440977532832</v>
       </c>
       <c r="P2" t="n">
-        <v>2277.553464068628</v>
+        <v>2487.745304821933</v>
       </c>
       <c r="Q2" t="n">
         <v>2589.992766140987</v>
@@ -4357,25 +4357,25 @@
         <v>2589.992766140987</v>
       </c>
       <c r="S2" t="n">
-        <v>2571.82561173428</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="T2" t="n">
-        <v>2571.82561173428</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="U2" t="n">
-        <v>2318.184750115867</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="V2" t="n">
-        <v>2318.184750115867</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="W2" t="n">
-        <v>1965.416094845753</v>
+        <v>2237.224110870872</v>
       </c>
       <c r="X2" t="n">
-        <v>1591.950336584673</v>
+        <v>1863.758352609792</v>
       </c>
       <c r="Y2" t="n">
-        <v>1201.811004608861</v>
+        <v>1863.758352609792</v>
       </c>
     </row>
     <row r="3">
@@ -4391,43 +4391,43 @@
         <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669854</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615298</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884146</v>
+        <v>320.7307563884149</v>
       </c>
       <c r="G3" t="n">
-        <v>183.629392168681</v>
+        <v>183.6293921686811</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093851</v>
+        <v>85.9974213009385</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281973</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369546</v>
+        <v>77.11538214994985</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496851</v>
+        <v>460.3590590626803</v>
       </c>
       <c r="L3" t="n">
-        <v>1161.911999152939</v>
+        <v>669.9499323155094</v>
       </c>
       <c r="M3" t="n">
-        <v>1425.851530648424</v>
+        <v>933.8894638109948</v>
       </c>
       <c r="N3" t="n">
-        <v>1711.185401081755</v>
+        <v>1219.223334244326</v>
       </c>
       <c r="O3" t="n">
-        <v>1949.990352833212</v>
+        <v>1847.951982079745</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020796</v>
+        <v>2335.559083986991</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140987</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>573.0030092826072</v>
+        <v>455.3429486240515</v>
       </c>
       <c r="C4" t="n">
-        <v>573.0030092826072</v>
+        <v>455.3429486240515</v>
       </c>
       <c r="D4" t="n">
-        <v>514.9246688099993</v>
+        <v>305.2263092117157</v>
       </c>
       <c r="E4" t="n">
-        <v>367.0115752276062</v>
+        <v>220.1216277296958</v>
       </c>
       <c r="F4" t="n">
         <v>220.1216277296958</v>
@@ -4512,28 +4512,28 @@
         <v>1311.202309361115</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361115</v>
+        <v>1193.54224870256</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361115</v>
+        <v>1193.54224870256</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361115</v>
+        <v>1193.54224870256</v>
       </c>
       <c r="U4" t="n">
-        <v>1311.202309361115</v>
+        <v>1193.54224870256</v>
       </c>
       <c r="V4" t="n">
-        <v>1311.202309361115</v>
+        <v>1193.54224870256</v>
       </c>
       <c r="W4" t="n">
-        <v>1021.785139324155</v>
+        <v>904.1250786655989</v>
       </c>
       <c r="X4" t="n">
-        <v>793.7955884261373</v>
+        <v>676.1355277675816</v>
       </c>
       <c r="Y4" t="n">
-        <v>573.0030092826072</v>
+        <v>455.3429486240515</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>797.6150093786493</v>
+        <v>1146.0956252021</v>
       </c>
       <c r="C5" t="n">
-        <v>428.6524924382377</v>
+        <v>777.1331082616884</v>
       </c>
       <c r="D5" t="n">
-        <v>70.3867938314872</v>
+        <v>418.8674096549379</v>
       </c>
       <c r="E5" t="n">
         <v>70.3867938314872</v>
@@ -4567,16 +4567,16 @@
         <v>51.79985532281973</v>
       </c>
       <c r="J5" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135509</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477384</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
         <v>1673.478115539971</v>
@@ -4585,10 +4585,10 @@
         <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645556</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507461</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
         <v>2589.992766140987</v>
@@ -4603,16 +4603,16 @@
         <v>2589.992766140987</v>
       </c>
       <c r="V5" t="n">
-        <v>2300.588594949777</v>
+        <v>2258.929878797416</v>
       </c>
       <c r="W5" t="n">
-        <v>1947.819939679663</v>
+        <v>1906.161223527302</v>
       </c>
       <c r="X5" t="n">
-        <v>1574.354181418583</v>
+        <v>1532.695465266222</v>
       </c>
       <c r="Y5" t="n">
-        <v>1184.214849442771</v>
+        <v>1532.695465266222</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>563.7673318682815</v>
+        <v>563.7673318682816</v>
       </c>
       <c r="L6" t="n">
-        <v>1104.091621317939</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M6" t="n">
-        <v>1470.397510810264</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N6" t="n">
-        <v>1860.807072136007</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O6" t="n">
-        <v>2195.735752851538</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P6" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4725,25 +4725,25 @@
         <v>51.79985532281973</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K7" t="n">
         <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317423</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1201.655413419054</v>
+        <v>1087.019180569859</v>
       </c>
       <c r="C8" t="n">
-        <v>832.6928964786418</v>
+        <v>718.0566636294473</v>
       </c>
       <c r="D8" t="n">
-        <v>474.4271978718913</v>
+        <v>359.7909650226968</v>
       </c>
       <c r="E8" t="n">
-        <v>474.4271978718913</v>
+        <v>70.3867938314872</v>
       </c>
       <c r="F8" t="n">
-        <v>63.44129308228371</v>
+        <v>63.44129308228372</v>
       </c>
       <c r="G8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104791</v>
+        <v>189.9868871104777</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135523</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477401</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187504</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539973</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082063</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645558</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507463</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="V8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="W8" t="n">
-        <v>2351.860343720067</v>
+        <v>2237.224110870872</v>
       </c>
       <c r="X8" t="n">
-        <v>1978.394585458987</v>
+        <v>1863.758352609792</v>
       </c>
       <c r="Y8" t="n">
-        <v>1588.255253483175</v>
+        <v>1473.619020633981</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258287</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L9" t="n">
-        <v>942.9699568457228</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M9" t="n">
-        <v>1309.275846338048</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N9" t="n">
-        <v>1699.685407663791</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>2034.614088379322</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>472.4514170392431</v>
+        <v>472.4514170392436</v>
       </c>
       <c r="C10" t="n">
-        <v>303.5152341113362</v>
+        <v>303.5152341113367</v>
       </c>
       <c r="D10" t="n">
-        <v>153.3985946990005</v>
+        <v>153.3985946990009</v>
       </c>
       <c r="E10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="F10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K10" t="n">
         <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317423</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
@@ -5001,13 +5001,13 @@
         <v>1392.299181947991</v>
       </c>
       <c r="W10" t="n">
-        <v>1102.88201191103</v>
+        <v>1102.882011911031</v>
       </c>
       <c r="X10" t="n">
-        <v>874.892461013013</v>
+        <v>874.8924610130134</v>
       </c>
       <c r="Y10" t="n">
-        <v>654.0998818694828</v>
+        <v>654.0998818694833</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5056,13 +5056,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5074,19 +5074,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5126,19 +5126,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2515.675093211831</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356194</v>
+        <v>945.4026036630049</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>776.466420735098</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>776.466420735098</v>
       </c>
       <c r="E13" t="n">
         <v>631.7012443408905</v>
@@ -5226,25 +5226,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2393.338457106056</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2393.338457106056</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>2104.263230450254</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1849.578742244367</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1560.161572207406</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>1332.172021309389</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y13" t="n">
-        <v>1111.379442165859</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="14">
@@ -5266,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5509,25 +5509,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,7 +5536,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>800.5007694647281</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>631.5645865368213</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>481.4479471244855</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>333.5348535420924</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>982.1492342949679</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5779,13 +5779,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266882</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="23">
@@ -5980,16 +5980,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5998,13 +5998,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>634.9279362553159</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C25" t="n">
-        <v>634.9279362553159</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1181.068281945074</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>953.0787310470569</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>732.2861519035267</v>
       </c>
     </row>
     <row r="26">
@@ -6217,13 +6217,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6454,13 +6454,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6469,28 +6469,28 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6663,10 +6663,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6782,16 +6782,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6837,19 +6837,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6964,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,43 +7156,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7256,16 +7256,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7317,10 +7317,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>197.0043242297712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>197.0043242297712</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7393,7 +7393,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7429,7 +7429,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7554,10 +7554,10 @@
         <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,19 +7730,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.8641191832229</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>634.927936255316</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.396372297858</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1723.711884091971</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1434.29471405501</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>1206.305163156993</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>985.5125840134626</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>52.72658406536675</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>348.4370131942364</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>36.14651360028995</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>26.19461818159832</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>196.3826133675519</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>191.0661938306021</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.428190898877801e-12</v>
+        <v>9.414691248821327e-13</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>245.4670104377199</v>
+        <v>35.3897227018706</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L9" t="n">
-        <v>347.1830914177569</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>162.7491560325415</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-2.069921525911127e-14</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-1.465101099348471e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>3.116438016303732</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>127.9379057921818</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>73.6241777260208</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405077</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.48834544997058</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>36.41624546988359</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G40" t="n">
-        <v>63.36835372228751</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>220.7351665485984</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>793113.310711773</v>
+        <v>793113.3107117729</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>752100.1003983667</v>
+        <v>752100.1003983666</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>752100.1003983668</v>
+        <v>752100.1003983667</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>752100.1003983666</v>
+        <v>752100.1003983667</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>752100.1003983667</v>
+        <v>752100.1003983666</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380329</v>
+        <v>677359.4601380331</v>
       </c>
       <c r="C2" t="n">
         <v>677359.460138034</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380342</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442554</v>
+        <v>665895.944744255</v>
       </c>
       <c r="G2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="J2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="H2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442554</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="L2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="K2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>665895.9447442547</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.944744255</v>
       </c>
       <c r="N2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>939682.9358753946</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898961</v>
+        <v>172764.3597898962</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457509</v>
+        <v>500888.8677457508</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>169414.0168260481</v>
@@ -26426,16 +26426,16 @@
         <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
+        <v>6287.480531695027</v>
+      </c>
+      <c r="F4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="F4" t="n">
-        <v>6287.480531695024</v>
-      </c>
       <c r="G4" t="n">
-        <v>6287.480531695093</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695106</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695052</v>
@@ -26459,7 +26459,7 @@
         <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-511454.3894495131</v>
+        <v>-511454.3894495128</v>
       </c>
       <c r="C6" t="n">
-        <v>282047.2562613803</v>
+        <v>282047.2562613802</v>
       </c>
       <c r="D6" t="n">
-        <v>454811.6160512766</v>
+        <v>454811.6160512763</v>
       </c>
       <c r="E6" t="n">
-        <v>57249.68738854524</v>
+        <v>57562.32871746644</v>
       </c>
       <c r="F6" t="n">
-        <v>558138.5551342963</v>
+        <v>558451.1964632173</v>
       </c>
       <c r="G6" t="n">
-        <v>558138.5551342958</v>
+        <v>558451.1964632173</v>
       </c>
       <c r="H6" t="n">
-        <v>558138.555134296</v>
+        <v>558451.1964632174</v>
       </c>
       <c r="I6" t="n">
-        <v>558138.5551342962</v>
+        <v>558451.1964632173</v>
       </c>
       <c r="J6" t="n">
-        <v>388724.5383082475</v>
+        <v>389037.1796371689</v>
       </c>
       <c r="K6" t="n">
-        <v>558138.555134296</v>
+        <v>558451.1964632169</v>
       </c>
       <c r="L6" t="n">
-        <v>558138.5551342956</v>
+        <v>558451.196463217</v>
       </c>
       <c r="M6" t="n">
-        <v>427254.0982300608</v>
+        <v>427566.7395589816</v>
       </c>
       <c r="N6" t="n">
-        <v>558138.5551342957</v>
+        <v>558451.196463217</v>
       </c>
       <c r="O6" t="n">
-        <v>558138.555134296</v>
+        <v>558451.196463217</v>
       </c>
       <c r="P6" t="n">
-        <v>558138.5551342957</v>
+        <v>558451.1964632171</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>749.9809564976066</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>647.4981915352466</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>749.9809564976066</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522379</v>
+        <v>189.725434152238</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918295</v>
+        <v>428.2691096918294</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352469</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644016</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>221.4513231454573</v>
       </c>
       <c r="H2" t="n">
         <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>94.2401475588522</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>122.3303011107852</v>
+        <v>140.3157839734244</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>91.11791595033051</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>62.18032797936949</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519701</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713016</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>36.93456040704552</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27675,7 +27675,7 @@
         <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>41.24212899083744</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27833,7 +27833,7 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>191.2722586870813</v>
+        <v>191.2722586870808</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>95.42024059296432</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>113.4898705207029</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>45.85121066415023</v>
+        <v>45.85121066414978</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28860,7 +28860,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31290,37 +31290,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L5" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N5" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31363,7 +31363,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583802</v>
@@ -31384,19 +31384,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284989</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315818</v>
@@ -31442,25 +31442,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
         <v>204.9484232984512</v>
@@ -31469,16 +31469,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31527,37 +31527,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L8" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N8" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31600,7 +31600,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
@@ -31621,19 +31621,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284989</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31679,25 +31679,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
         <v>204.9484232984512</v>
@@ -31706,16 +31706,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31846,10 +31846,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>583.1096135868572</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
@@ -31858,10 +31858,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>140.7358547888808</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -32074,13 +32074,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,25 +32548,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>444.2274915982898</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33444,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33502,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33976,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34450,10 +34450,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000215</v>
+        <v>243.9449667520759</v>
       </c>
       <c r="K2" t="n">
         <v>487.5747176873196</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315045</v>
+        <v>292.7495953968713</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410102</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="N2" t="n">
         <v>308.5607133692752</v>
       </c>
       <c r="O2" t="n">
-        <v>314.0416846271906</v>
+        <v>277.8951710269007</v>
       </c>
       <c r="P2" t="n">
-        <v>524.126311493807</v>
+        <v>202.3276033223243</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185443</v>
+        <v>103.2802639586396</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597322</v>
+        <v>25.57123921932336</v>
       </c>
       <c r="K3" t="n">
         <v>387.1148251643742</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840945</v>
+        <v>211.7079527806354</v>
       </c>
       <c r="M3" t="n">
         <v>266.6055873691772</v>
@@ -34792,13 +34792,13 @@
         <v>288.2160307407381</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812694</v>
+        <v>635.0794422579988</v>
       </c>
       <c r="P3" t="n">
-        <v>370.4522708965499</v>
+        <v>492.5324261689352</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527177</v>
+        <v>257.0037193474707</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N5" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760962126</v>
+        <v>21.7162976096208</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171352</v>
+        <v>64.12666919171355</v>
       </c>
       <c r="K6" t="n">
         <v>453.0121960057227</v>
       </c>
       <c r="L6" t="n">
-        <v>545.7821105552094</v>
+        <v>335.7048228193602</v>
       </c>
       <c r="M6" t="n">
         <v>370.0059489821469</v>
@@ -35029,13 +35029,13 @@
         <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297622</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35102,10 +35102,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
@@ -35114,7 +35114,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N8" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171352</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931441</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L9" t="n">
-        <v>647.4981915352465</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
         <v>370.0059489821469</v>
@@ -35266,13 +35266,13 @@
         <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P9" t="n">
-        <v>414.7458508456917</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297622</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35339,10 +35339,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
@@ -35351,7 +35351,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,10 +35494,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
@@ -35506,10 +35506,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7540807028592577</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789214</v>
@@ -35655,7 +35655,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193518</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>302.0934576762715</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
